--- a/speedtests/moustracking.xlsx
+++ b/speedtests/moustracking.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nicos_zeug\bachelor\speedtests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{94163C22-EE91-4B52-A527-27FA8777F9DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86883E3F-4528-44E6-BDFD-050773BE0C12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="2180" windowWidth="28800" windowHeight="15540" activeTab="1"/>
+    <workbookView xWindow="-13440" yWindow="6890" windowWidth="28800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
     <sheet name="Charts" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Zeit</t>
   </si>
@@ -49,11 +60,14 @@
   <si>
     <t>Mausrad</t>
   </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -5032,12 +5046,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5046,7 +5060,7 @@
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5056,8 +5070,11 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5067,8 +5084,12 @@
       <c r="C2" s="1">
         <v>2.5694444444444447E-2</v>
       </c>
+      <c r="D2">
+        <f>100-((C2/B2)*100)</f>
+        <v>65.740740740740733</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5078,8 +5099,12 @@
       <c r="C3" s="1">
         <v>1.5277777777777777E-2</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D20" si="0">100-((C3/B3)*100)</f>
+        <v>76.59574468085107</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5089,8 +5114,26 @@
       <c r="C4" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>58.904109589041106</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <f>SUM(B2:B4)</f>
+        <v>0.19097222222222224</v>
+      </c>
+      <c r="C5" s="1">
+        <f>SUM(C2:C4)</f>
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>67.63636363636364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5101,7 +5144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -5111,8 +5154,12 @@
       <c r="C7">
         <v>2.1246999999999998</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>70.125140607424072</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -5122,8 +5169,12 @@
       <c r="C8">
         <v>2.1177000000000001</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>66.680826961200793</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -5133,8 +5184,26 @@
       <c r="C9">
         <v>5.9768999999999997</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-12.459781361130439</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>SUM(B7:B9)</f>
+        <v>18.782499999999999</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C7:C9)</f>
+        <v>10.2193</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>45.591374950086518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -5145,7 +5214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -5155,8 +5224,12 @@
       <c r="C12">
         <v>7</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>61.111111111111107</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -5166,8 +5239,12 @@
       <c r="C13">
         <v>8</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -5177,8 +5254,26 @@
       <c r="C14">
         <v>13</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>56.666666666666664</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>SUM(B12:B14)</f>
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C12:C14)</f>
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>61.643835616438359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -5189,7 +5284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -5199,8 +5294,12 @@
       <c r="C17">
         <v>19</v>
       </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>38.70967741935484</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5211,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -5220,6 +5319,24 @@
       </c>
       <c r="C19">
         <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>SUM(B17:B19)</f>
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C17:C19)</f>
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>61.224489795918366</v>
       </c>
     </row>
   </sheetData>
@@ -5228,11 +5345,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
